--- a/medicine/Pharmacie/Vardénafil/Vardénafil.xlsx
+++ b/medicine/Pharmacie/Vardénafil/Vardénafil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vard%C3%A9nafil</t>
+          <t>Vardénafil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le vardénafil est un médicament utilisé dans les troubles de l'érection. C'est un  inhibiteur de la phosphodiestérase de type 5 (PDE5).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vard%C3%A9nafil</t>
+          <t>Vardénafil</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit essentiellement de la dysfonction érectile.
-Il peut être utilisé dans l'hypertension artérielle pulmonaire où il en améliore les symptômes et les paramètres hémodynamiques[2] mais sans efficacité démontrée sur la mortalité.
-Contrairement aux autres traitements contre les troubles érectiles, il convient aux hommes souffrant de diabète, d'hypertension artérielle ou d'un taux de cholestérol élevé[3].
+Il peut être utilisé dans l'hypertension artérielle pulmonaire où il en améliore les symptômes et les paramètres hémodynamiques mais sans efficacité démontrée sur la mortalité.
+Contrairement aux autres traitements contre les troubles érectiles, il convient aux hommes souffrant de diabète, d'hypertension artérielle ou d'un taux de cholestérol élevé.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vard%C3%A9nafil</t>
+          <t>Vardénafil</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est commercialisé depuis 2005 par le laboratoire Bayer Schering Pharma sous le nom de Levitra en comprimés de 5, 10, et 20 mg.
 Le Levitra est un médicament et, dans la plupart des pays, ne peut donc pas être acheté sans prescription médicale. En France, il est sur la liste des substances vénéneuses (liste I, uniquement sur ordonnance), et n'est pas remboursé par la Sécurité sociale.
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vard%C3%A9nafil</t>
+          <t>Vardénafil</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Posologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La dose recommandée est de 10 mg à prendre selon les besoins, environ 25 à 60 minutes avant toute activité sexuelle. En fonction de l'efficacité et de la tolérance, la dose peut être portée à 20 mg ou réduite à 5 mg. La dose maximale recommandée est de 20 mg. Il est recommandé d’utiliser le médicament au maximum une fois par jour. Le vardénafil peut être pris avec ou sans nourriture. Le délai d’action peut être retardé en cas de prise au cours d’un repas riche en graisse.
 </t>
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Vard%C3%A9nafil</t>
+          <t>Vardénafil</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Molécules ayant la même indication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">sildénafil (Viagra) et sulfoaildénafil, chlorhydrate d'apomorphine (Uprima) et tadalafil (Cialis).
 </t>
